--- a/biology/Zoologie/Allosmaitia_piplea/Allosmaitia_piplea.xlsx
+++ b/biology/Zoologie/Allosmaitia_piplea/Allosmaitia_piplea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia piplea est une espèce d'insectes lépidoptères - ou papillons de la famille des Lycaenidae, sous-famille des Theclinae et du genre Allosmaitia.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia  piplea a été décrit par Frederick DuCane Godman et Osbert Salvin en 1896 sous le nom initial de Thecla piplea.
-Synonyme : Thecla subobscura Lathy, 1904[1].
-Noms vernaculaires
-Allosmaitia piplea se nomme Piplea Hairstreak en anglais[2].
+Synonyme : Thecla subobscura Lathy, 1904.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia piplea se nomme Piplea Hairstreak en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Allosmaitia_piplea</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_piplea</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Allosmaitia piplea est un petit papillon qui possède à chaque aile postérieure une très fine queue.
 Le dessus est marron avec une suffusion bleue le long du bord interne des ailes antérieures et aux ailes antérieures en triangle central de la base au bord externe en laissant deux bandes marron le long du bord costal et du bord interne.
@@ -554,36 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Allosmaitia_piplea</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Allosmaitia_piplea</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -608,12 +629,48 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Allosmaitia piplea est présent à Saint-Vincent, à La Dominique, à la Martinique et à la Guadeloupe[1],[3],[2].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Allosmaitia piplea est présent à Saint-Vincent, à La Dominique, à la Martinique et à la Guadeloupe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Allosmaitia_piplea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Allosmaitia_piplea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 Sur les autres projets Wikimedia :
 Allosmaitia piplea, sur Wikimedia CommonsAllosmaitia piplea, sur Wikispecies
 </t>
